--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBDF5D9E-5ACE-464D-9C8C-643915C3880E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t xml:space="preserve">Arnaldo </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -75,23 +72,78 @@
     <t>lucas-mussoi@hotmail.com</t>
   </si>
   <si>
-    <t>lucasschwarz@usp.br; ‎</t>
-  </si>
-  <si>
     <t>Lucas Schwarz</t>
   </si>
   <si>
     <t>Rafael Palazzi</t>
+  </si>
+  <si>
+    <t>Luis Felipe</t>
+  </si>
+  <si>
+    <t>Marcelo Perlin</t>
+  </si>
+  <si>
+    <t>marceloperlin@gmail.com</t>
+  </si>
+  <si>
+    <t>Marcos Henrique</t>
+  </si>
+  <si>
+    <t>arthurwachs@gmail.com</t>
+  </si>
+  <si>
+    <t>Arthur</t>
+  </si>
+  <si>
+    <t>Victor Dahan</t>
+  </si>
+  <si>
+    <t>Arnaldo Nascimento</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>victordahan@gmail.com</t>
+  </si>
+  <si>
+    <t>luisfelipedma@gmail.com</t>
+  </si>
+  <si>
+    <t>lucasschwarz@usp.br</t>
+  </si>
+  <si>
+    <t>marcoshenriquereichert@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,7 +157,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,14 +165,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,82 +502,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971F3FB-C5C6-49D0-BD72-3937D95021C2}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
+    <sortCondition ref="A2:A14"/>
+  </sortState>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{B02759E4-8224-42BF-8129-28611C35BB56}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{57578DC9-AB2F-4F79-8A21-FEB7FCBF4FF9}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{E894C13C-DACB-4857-AC58-E28E6437C353}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{72A1465B-DC5A-4AE9-8521-C3FF423B4118}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{4030A451-F7A7-4015-85F5-D733EF8297AD}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{0DF90303-8780-4F99-8F41-D1B659336B83}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{2012D897-BA9D-43CA-B448-52DDAEC68A6C}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{DFAA7228-321A-4C86-AE87-EBBC6CF83765}"/>
+    <hyperlink ref="B9" r:id="rId9" xr:uid="{1F4FD94A-2F86-4B45-9493-0706E793C56A}"/>
+    <hyperlink ref="B10" r:id="rId10" xr:uid="{0259C612-A98A-47B0-BE09-B7D862371EA9}"/>
+    <hyperlink ref="B11" r:id="rId11" xr:uid="{F87519B5-517B-4468-AE05-F63A3C4C88DC}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{A34EACEF-1E55-4B8E-85C9-EDA5881895E9}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{634F5786-EF09-42F5-889C-5B3FCD511980}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBDF5D9E-5ACE-464D-9C8C-643915C3880E}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA65D09-AF72-4B27-AC25-32382610A1C1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -66,9 +66,6 @@
     <t>jefferson.colombo@fgv.br</t>
   </si>
   <si>
-    <t>Lucas Mussoni</t>
-  </si>
-  <si>
     <t>lucas-mussoi@hotmail.com</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>arthurwachs@gmail.com</t>
   </si>
   <si>
-    <t>Arthur</t>
-  </si>
-  <si>
     <t>Victor Dahan</t>
   </si>
   <si>
@@ -118,6 +112,75 @@
   </si>
   <si>
     <t>marcoshenriquereichert@gmail.com</t>
+  </si>
+  <si>
+    <t>Arthur Wachslicht</t>
+  </si>
+  <si>
+    <t>Wendel Marques</t>
+  </si>
+  <si>
+    <t>wendelmarques99@outlook.com</t>
+  </si>
+  <si>
+    <t>Lucas Mussoi</t>
+  </si>
+  <si>
+    <t>mohammedkaebi23@gmail.com</t>
+  </si>
+  <si>
+    <t>Gabriel Boechat</t>
+  </si>
+  <si>
+    <t>Henrique Ramos</t>
+  </si>
+  <si>
+    <t>hpramos4@gmail.com</t>
+  </si>
+  <si>
+    <t>Victor Gomes</t>
+  </si>
+  <si>
+    <t>Mohammed Kaebi</t>
+  </si>
+  <si>
+    <t>Alexandre Rubesam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alexandre.rubesam@gmail.com </t>
+  </si>
+  <si>
+    <t>Bernardo Mendes</t>
+  </si>
+  <si>
+    <t>Henrique Castro Martins</t>
+  </si>
+  <si>
+    <t>henrique.martins@fgv.br</t>
+  </si>
+  <si>
+    <t>Gerson Júnior</t>
+  </si>
+  <si>
+    <t>Fabian Dablander</t>
+  </si>
+  <si>
+    <t>Igor Moreira</t>
+  </si>
+  <si>
+    <t>Joachim Schork</t>
+  </si>
+  <si>
+    <t>Victor da Motta</t>
+  </si>
+  <si>
+    <t>victor.gomes@tradingcomdados.com</t>
+  </si>
+  <si>
+    <t>victor.damotta@gmail.com</t>
+  </si>
+  <si>
+    <t>gersondesouzajunior00@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -179,7 +242,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -187,6 +250,8 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -502,32 +567,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971F3FB-C5C6-49D0-BD72-3937D95021C2}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -535,117 +600,216 @@
         <v>19</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B7" s="4"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B14">
-    <sortCondition ref="A2:A14"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B26">
+    <sortCondition ref="A3:A26"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1" xr:uid="{B02759E4-8224-42BF-8129-28611C35BB56}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{57578DC9-AB2F-4F79-8A21-FEB7FCBF4FF9}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{E894C13C-DACB-4857-AC58-E28E6437C353}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{72A1465B-DC5A-4AE9-8521-C3FF423B4118}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{4030A451-F7A7-4015-85F5-D733EF8297AD}"/>
-    <hyperlink ref="B6" r:id="rId6" xr:uid="{0DF90303-8780-4F99-8F41-D1B659336B83}"/>
-    <hyperlink ref="B7" r:id="rId7" xr:uid="{2012D897-BA9D-43CA-B448-52DDAEC68A6C}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{DFAA7228-321A-4C86-AE87-EBBC6CF83765}"/>
-    <hyperlink ref="B9" r:id="rId9" xr:uid="{1F4FD94A-2F86-4B45-9493-0706E793C56A}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{0259C612-A98A-47B0-BE09-B7D862371EA9}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{F87519B5-517B-4468-AE05-F63A3C4C88DC}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{A34EACEF-1E55-4B8E-85C9-EDA5881895E9}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{634F5786-EF09-42F5-889C-5B3FCD511980}"/>
+    <hyperlink ref="B23" r:id="rId1" xr:uid="{B02759E4-8224-42BF-8129-28611C35BB56}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{57578DC9-AB2F-4F79-8A21-FEB7FCBF4FF9}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E894C13C-DACB-4857-AC58-E28E6437C353}"/>
+    <hyperlink ref="B6" r:id="rId4" xr:uid="{72A1465B-DC5A-4AE9-8521-C3FF423B4118}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{4030A451-F7A7-4015-85F5-D733EF8297AD}"/>
+    <hyperlink ref="B15" r:id="rId6" xr:uid="{0DF90303-8780-4F99-8F41-D1B659336B83}"/>
+    <hyperlink ref="B16" r:id="rId7" xr:uid="{2012D897-BA9D-43CA-B448-52DDAEC68A6C}"/>
+    <hyperlink ref="B17" r:id="rId8" xr:uid="{DFAA7228-321A-4C86-AE87-EBBC6CF83765}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{1F4FD94A-2F86-4B45-9493-0706E793C56A}"/>
+    <hyperlink ref="B19" r:id="rId10" xr:uid="{0259C612-A98A-47B0-BE09-B7D862371EA9}"/>
+    <hyperlink ref="B20" r:id="rId11" xr:uid="{F87519B5-517B-4468-AE05-F63A3C4C88DC}"/>
+    <hyperlink ref="B22" r:id="rId12" xr:uid="{A34EACEF-1E55-4B8E-85C9-EDA5881895E9}"/>
+    <hyperlink ref="B26" r:id="rId13" xr:uid="{634F5786-EF09-42F5-889C-5B3FCD511980}"/>
+    <hyperlink ref="B27" r:id="rId14" xr:uid="{0BB2958D-51D5-4D86-936C-A433B4F35E4D}"/>
+    <hyperlink ref="B21" r:id="rId15" xr:uid="{402C9D99-0A35-4602-9567-D47602667465}"/>
+    <hyperlink ref="B12" r:id="rId16" xr:uid="{653A4366-D4F6-4B54-B45C-8A52213E5723}"/>
+    <hyperlink ref="B2" r:id="rId17" xr:uid="{C8F4A81E-A373-4457-AD76-026737C8E0A2}"/>
+    <hyperlink ref="B11" r:id="rId18" xr:uid="{60FC0333-A59C-4784-A6EE-6028EBE1D058}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BA65D09-AF72-4B27-AC25-32382610A1C1}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418D66BE-D5AD-44C2-9BE5-8E4BCA67AA0E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>gersondesouzajunior00@gmail.com</t>
+  </si>
+  <si>
+    <t>joachim@statisticsglobe.com</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,7 +682,9 @@
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">

--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418D66BE-D5AD-44C2-9BE5-8E4BCA67AA0E}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DBB16D-DE92-493B-96EE-3AA539FFACB7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>joachim@statisticsglobe.com</t>
+  </si>
+  <si>
+    <t>bernardorm94@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -573,7 +576,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +621,9 @@
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">

--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DBB16D-DE92-493B-96EE-3AA539FFACB7}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1291BCD-07F2-4403-B959-E18C3392648B}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>bernardorm94@gmail.com</t>
+  </si>
+  <si>
+    <t>Igormjaqueira@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +684,9 @@
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">

--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1291BCD-07F2-4403-B959-E18C3392648B}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DBB16D-DE92-493B-96EE-3AA539FFACB7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>bernardorm94@gmail.com</t>
-  </si>
-  <si>
-    <t>Igormjaqueira@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -579,7 +576,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,9 +681,7 @@
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>51</v>
-      </c>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">

--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9DBB16D-DE92-493B-96EE-3AA539FFACB7}"/>
+  <xr:revisionPtr revIDLastSave="109" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418D66BE-D5AD-44C2-9BE5-8E4BCA67AA0E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -184,9 +184,6 @@
   </si>
   <si>
     <t>joachim@statisticsglobe.com</t>
-  </si>
-  <si>
-    <t>bernardorm94@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -576,7 +573,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,9 +618,7 @@
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">

--- a/Emails_OCC.xlsx
+++ b/Emails_OCC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fgvbr-my.sharepoint.com/personal/henrique_martins_fgv_br/Documents/git/open-code-community/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="109" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{418D66BE-D5AD-44C2-9BE5-8E4BCA67AA0E}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{17D75790-831F-446E-9BD0-49AF4CB8D6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DFC768F-B324-4561-93CB-E602CE81D222}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12252" xr2:uid="{BA53DD1C-D7B9-4E57-8028-CCD7920A11CF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>arnaldo.nj@gmail.com</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>joachim@statisticsglobe.com</t>
+  </si>
+  <si>
+    <t>bernardorm94@gmail.com</t>
+  </si>
+  <si>
+    <t>Igormjaqueira@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -572,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3971F3FB-C5C6-49D0-BD72-3937D95021C2}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +624,9 @@
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -676,7 +684,9 @@
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
